--- a/config_11.16/permission_server_config.xlsx
+++ b/config_11.16/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6050" uniqueCount="2275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6106" uniqueCount="2292">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10477,6 +10477,203 @@
   </si>
   <si>
     <t>幸运福袋（V4-V6，非CPS）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>绝地反击（V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-V2,非cps，非冲金鸡）</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V3-V5,非cps，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V6-V8,非cps，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V9-V12,非cps，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_another_day_gift2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_another_day_gift3</t>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_another_day_gift4</t>
+  </si>
+  <si>
+    <t>VIP7及以上玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以上玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以下玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以上玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以下玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以上玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以下玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以上玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以下玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_another_day_gift1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -16586,13 +16783,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P441"/>
+  <dimension ref="A1:P445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D425" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H445" sqref="H445"/>
+      <selection pane="bottomRight" activeCell="J446" sqref="J446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30803,7 +31000,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" s="119" t="s">
         <v>2097</v>
@@ -30836,7 +31033,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" s="119" t="s">
         <v>2221</v>
@@ -30869,7 +31066,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" s="119" t="s">
         <v>2098</v>
@@ -30902,7 +31099,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" s="119" t="s">
         <v>2255</v>
@@ -31819,6 +32016,134 @@
         <v>1637020800</v>
       </c>
       <c r="M441" s="119" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13">
+      <c r="A442" s="7">
+        <v>441</v>
+      </c>
+      <c r="B442" s="7">
+        <v>1</v>
+      </c>
+      <c r="C442" s="119" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D442" s="119" t="s">
+        <v>2275</v>
+      </c>
+      <c r="G442" s="7">
+        <v>541</v>
+      </c>
+      <c r="H442" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I442" t="b">
+        <v>1</v>
+      </c>
+      <c r="J442" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L442" s="7">
+        <v>1637020800</v>
+      </c>
+      <c r="M442" s="119" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13">
+      <c r="A443" s="7">
+        <v>442</v>
+      </c>
+      <c r="B443" s="7">
+        <v>1</v>
+      </c>
+      <c r="C443" s="119" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D443" s="119" t="s">
+        <v>2276</v>
+      </c>
+      <c r="G443" s="7">
+        <v>542</v>
+      </c>
+      <c r="H443" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I443" t="b">
+        <v>1</v>
+      </c>
+      <c r="J443" s="119" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L443" s="7">
+        <v>1637020800</v>
+      </c>
+      <c r="M443" s="119" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13">
+      <c r="A444" s="7">
+        <v>443</v>
+      </c>
+      <c r="B444" s="7">
+        <v>1</v>
+      </c>
+      <c r="C444" s="119" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D444" s="119" t="s">
+        <v>2277</v>
+      </c>
+      <c r="G444" s="7">
+        <v>543</v>
+      </c>
+      <c r="H444" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I444" t="b">
+        <v>1</v>
+      </c>
+      <c r="J444" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L444" s="7">
+        <v>1637020800</v>
+      </c>
+      <c r="M444" s="119" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13">
+      <c r="A445" s="7">
+        <v>444</v>
+      </c>
+      <c r="B445" s="7">
+        <v>1</v>
+      </c>
+      <c r="C445" s="119" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D445" s="119" t="s">
+        <v>2278</v>
+      </c>
+      <c r="G445" s="7">
+        <v>544</v>
+      </c>
+      <c r="H445" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I445" t="b">
+        <v>1</v>
+      </c>
+      <c r="J445" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="L445" s="7">
+        <v>1637020800</v>
+      </c>
+      <c r="M445" s="119" t="s">
         <v>2270</v>
       </c>
     </row>
@@ -31832,13 +32157,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1243"/>
+  <dimension ref="A1:I1259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1211" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1238" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1244" sqref="E1244"/>
+      <selection pane="bottomRight" activeCell="D1262" sqref="D1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -61325,7 +61650,7 @@
         <v>1</v>
       </c>
       <c r="G1241" s="122" t="s">
-        <v>2251</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1242" spans="1:7">
@@ -61372,6 +61697,374 @@
       </c>
       <c r="G1243" s="122" t="s">
         <v>2242</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7">
+      <c r="A1244" s="9">
+        <v>1243</v>
+      </c>
+      <c r="B1244" s="21">
+        <v>541</v>
+      </c>
+      <c r="C1244" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1244" s="21">
+        <v>0</v>
+      </c>
+      <c r="E1244" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1244" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1244" s="122" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7">
+      <c r="A1245" s="9">
+        <v>1244</v>
+      </c>
+      <c r="B1245" s="21">
+        <v>541</v>
+      </c>
+      <c r="C1245" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1245" s="21">
+        <v>2</v>
+      </c>
+      <c r="E1245" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1245" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1245" s="122" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7">
+      <c r="A1246" s="9">
+        <v>1245</v>
+      </c>
+      <c r="B1246" s="21">
+        <v>541</v>
+      </c>
+      <c r="C1246" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1246" s="123" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1246" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1246" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1246" s="122" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7">
+      <c r="A1247" s="9">
+        <v>1246</v>
+      </c>
+      <c r="B1247" s="21">
+        <v>541</v>
+      </c>
+      <c r="C1247" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1247" s="122" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E1247" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1247" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1247" s="122" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7">
+      <c r="A1248" s="9">
+        <v>1247</v>
+      </c>
+      <c r="B1248" s="21">
+        <v>542</v>
+      </c>
+      <c r="C1248" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1248" s="21">
+        <v>3</v>
+      </c>
+      <c r="E1248" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1248" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1248" s="122" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7">
+      <c r="A1249" s="9">
+        <v>1248</v>
+      </c>
+      <c r="B1249" s="21">
+        <v>542</v>
+      </c>
+      <c r="C1249" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1249" s="21">
+        <v>5</v>
+      </c>
+      <c r="E1249" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1249" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1249" s="122" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7">
+      <c r="A1250" s="9">
+        <v>1249</v>
+      </c>
+      <c r="B1250" s="21">
+        <v>542</v>
+      </c>
+      <c r="C1250" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1250" s="123" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1250" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1250" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1250" s="122" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7">
+      <c r="A1251" s="9">
+        <v>1250</v>
+      </c>
+      <c r="B1251" s="21">
+        <v>542</v>
+      </c>
+      <c r="C1251" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1251" s="122" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E1251" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1251" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1251" s="122" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7">
+      <c r="A1252" s="9">
+        <v>1251</v>
+      </c>
+      <c r="B1252" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1252" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1252" s="21">
+        <v>6</v>
+      </c>
+      <c r="E1252" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1252" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1252" s="122" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7">
+      <c r="A1253" s="9">
+        <v>1252</v>
+      </c>
+      <c r="B1253" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1253" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1253" s="21">
+        <v>8</v>
+      </c>
+      <c r="E1253" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1253" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1253" s="122" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7">
+      <c r="A1254" s="9">
+        <v>1253</v>
+      </c>
+      <c r="B1254" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1254" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1254" s="123" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1254" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1254" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1254" s="122" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7">
+      <c r="A1255" s="9">
+        <v>1254</v>
+      </c>
+      <c r="B1255" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1255" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1255" s="122" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E1255" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1255" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1255" s="122" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7">
+      <c r="A1256" s="9">
+        <v>1255</v>
+      </c>
+      <c r="B1256" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1256" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1256" s="21">
+        <v>9</v>
+      </c>
+      <c r="E1256" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1256" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1256" s="122" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7">
+      <c r="A1257" s="9">
+        <v>1256</v>
+      </c>
+      <c r="B1257" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1257" s="122" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1257" s="21">
+        <v>12</v>
+      </c>
+      <c r="E1257" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1257" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1257" s="122" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7">
+      <c r="A1258" s="9">
+        <v>1257</v>
+      </c>
+      <c r="B1258" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1258" s="121" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D1258" s="123" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E1258" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1258" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1258" s="122" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7">
+      <c r="A1259" s="9">
+        <v>1258</v>
+      </c>
+      <c r="B1259" s="21">
+        <v>543</v>
+      </c>
+      <c r="C1259" s="122" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D1259" s="122" t="s">
+        <v>2129</v>
+      </c>
+      <c r="E1259" s="21">
+        <v>5</v>
+      </c>
+      <c r="F1259" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1259" s="122" t="s">
+        <v>2215</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.16/permission_server_config.xlsx
+++ b/config_11.16/permission_server_config.xlsx
@@ -10480,35 +10480,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>绝地反击（V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0-V2,非cps，非冲金鸡）</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝地反击（V3-V5,非cps，非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝地反击（V6-V8,非cps，非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝地反击（V9-V12,非cps，非冲金鸡）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_class_another_day_gift2</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -10674,6 +10645,22 @@
   </si>
   <si>
     <t>actp_buy_gift_bag_class_another_day_gift1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V0-V2，非cps，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V3-V5，非cps，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V6-V8，非cps，非冲金鸡）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击（V9-V12，非cps，非冲金鸡）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -16786,10 +16773,10 @@
   <dimension ref="A1:P445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G422" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D422" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J446" sqref="J446"/>
+      <selection pane="bottomRight" activeCell="F449" sqref="F449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32027,10 +32014,10 @@
         <v>1</v>
       </c>
       <c r="C442" s="119" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="D442" s="119" t="s">
-        <v>2275</v>
+        <v>2288</v>
       </c>
       <c r="G442" s="7">
         <v>541</v>
@@ -32059,10 +32046,10 @@
         <v>1</v>
       </c>
       <c r="C443" s="119" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="D443" s="119" t="s">
-        <v>2276</v>
+        <v>2289</v>
       </c>
       <c r="G443" s="7">
         <v>542</v>
@@ -32091,10 +32078,10 @@
         <v>1</v>
       </c>
       <c r="C444" s="119" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="D444" s="119" t="s">
-        <v>2277</v>
+        <v>2290</v>
       </c>
       <c r="G444" s="7">
         <v>543</v>
@@ -32123,10 +32110,10 @@
         <v>1</v>
       </c>
       <c r="C445" s="119" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="D445" s="119" t="s">
-        <v>2278</v>
+        <v>2291</v>
       </c>
       <c r="G445" s="7">
         <v>544</v>
@@ -61650,7 +61637,7 @@
         <v>1</v>
       </c>
       <c r="G1241" s="122" t="s">
-        <v>2282</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1242" spans="1:7">
@@ -61719,7 +61706,7 @@
         <v>1</v>
       </c>
       <c r="G1244" s="122" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1245" spans="1:7">
@@ -61742,7 +61729,7 @@
         <v>1</v>
       </c>
       <c r="G1245" s="122" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1246" spans="1:7">
@@ -61811,7 +61798,7 @@
         <v>1</v>
       </c>
       <c r="G1248" s="122" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1249" spans="1:7">
@@ -61834,7 +61821,7 @@
         <v>1</v>
       </c>
       <c r="G1249" s="122" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1250" spans="1:7">
@@ -61903,7 +61890,7 @@
         <v>1</v>
       </c>
       <c r="G1252" s="122" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1253" spans="1:7">
@@ -61926,7 +61913,7 @@
         <v>1</v>
       </c>
       <c r="G1253" s="122" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1254" spans="1:7">
@@ -61995,7 +61982,7 @@
         <v>1</v>
       </c>
       <c r="G1256" s="122" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1257" spans="1:7">
@@ -62018,7 +62005,7 @@
         <v>1</v>
       </c>
       <c r="G1257" s="122" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1258" spans="1:7">
